--- a/excel/matf_eigenvector_centrality.xlsx
+++ b/excel/matf_eigenvector_centrality.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3935344409905333</v>
+        <v>0.3935344409905354</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3851930381612776</v>
+        <v>0.3851930381612741</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3500574432391201</v>
+        <v>0.3500574432391157</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3100215819474885</v>
+        <v>0.3100215819474923</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3049392050697853</v>
+        <v>0.3049392050697896</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2896607559880841</v>
+        <v>0.2896607559880881</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2825198800770921</v>
+        <v>0.2825198800770909</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2630371643854696</v>
+        <v>0.2630371643854659</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2498581442534443</v>
+        <v>0.2498581442534408</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1488204762126815</v>
+        <v>0.1488204762126838</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1383178888102564</v>
+        <v>0.1383178888102581</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1304027384927403</v>
+        <v>0.130402738492739</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1122134172770584</v>
+        <v>0.1122134172770597</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08761473060300015</v>
+        <v>0.08761473060299886</v>
       </c>
     </row>
     <row r="16">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07632223458888754</v>
+        <v>0.07632223458888854</v>
       </c>
     </row>
     <row r="17">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06583471010632812</v>
+        <v>0.0658347101063271</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03263807418924201</v>
+        <v>0.03263807418924189</v>
       </c>
     </row>
   </sheetData>

--- a/excel/matf_eigenvector_centrality.xlsx
+++ b/excel/matf_eigenvector_centrality.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3935344409905354</v>
+        <v>0.3935344409905333</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3851930381612741</v>
+        <v>0.3851930381612769</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3500574432391157</v>
+        <v>0.3500574432391205</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3100215819474923</v>
+        <v>0.3100215819474886</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3049392050697896</v>
+        <v>0.304939205069785</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2896607559880881</v>
+        <v>0.2896607559880842</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2825198800770909</v>
+        <v>0.2825198800770921</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2630371643854659</v>
+        <v>0.2630371643854695</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2498581442534408</v>
+        <v>0.249858144253444</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1488204762126838</v>
+        <v>0.1488204762126815</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1383178888102581</v>
+        <v>0.1383178888102572</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.130402738492739</v>
+        <v>0.1304027384927398</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1122134172770597</v>
+        <v>0.1122134172770582</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08761473060299886</v>
+        <v>0.08761473060300001</v>
       </c>
     </row>
     <row r="16">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07632223458888854</v>
+        <v>0.07632223458888748</v>
       </c>
     </row>
     <row r="17">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0658347101063271</v>
+        <v>0.06583471010632834</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03263807418924189</v>
+        <v>0.03263807418924232</v>
       </c>
     </row>
   </sheetData>

--- a/excel/matf_eigenvector_centrality.xlsx
+++ b/excel/matf_eigenvector_centrality.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3935344409905333</v>
+        <v>0.3935344409905334</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3851930381612769</v>
+        <v>0.3851930381612771</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3500574432391205</v>
+        <v>0.3500574432391206</v>
       </c>
     </row>
     <row r="5">
@@ -425,7 +425,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.304939205069785</v>
+        <v>0.3049392050697855</v>
       </c>
     </row>
     <row r="7">
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2896607559880842</v>
+        <v>0.2896607559880845</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2825198800770921</v>
+        <v>0.2825198800770918</v>
       </c>
     </row>
     <row r="9">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2630371643854695</v>
+        <v>0.263037164385469</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.249858144253444</v>
+        <v>0.2498581442534439</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1488204762126815</v>
+        <v>0.1488204762126819</v>
       </c>
     </row>
     <row r="12">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1383178888102572</v>
+        <v>0.1383178888102574</v>
       </c>
     </row>
     <row r="13">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1304027384927398</v>
+        <v>0.1304027384927395</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1122134172770582</v>
+        <v>0.1122134172770581</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08761473060300001</v>
+        <v>0.08761473060299986</v>
       </c>
     </row>
     <row r="16">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07632223458888748</v>
+        <v>0.07632223458888704</v>
       </c>
     </row>
     <row r="17">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06583471010632834</v>
+        <v>0.0658347101063284</v>
       </c>
     </row>
     <row r="18">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03263807418924232</v>
+        <v>0.03263807418924219</v>
       </c>
     </row>
   </sheetData>
